--- a/report.xlsx
+++ b/report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BOX\eKasa\"/>
     </mc:Choice>
@@ -15,14 +15,14 @@
     <sheet name="Doklady" sheetId="1" r:id="rId1"/>
     <sheet name="Položky dokladu" sheetId="2" r:id="rId2"/>
     <sheet name="Filtrovacie kritériá" sheetId="3" r:id="rId3"/>
-    <sheet name="Sumar" sheetId="4" r:id="rId4"/>
+    <sheet name="Sumar" r:id="rId8" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6675" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6711" uniqueCount="1855">
   <si>
     <t>Dátum zaevidovania v e-kasa</t>
   </si>
@@ -5584,6 +5584,9 @@
   </si>
   <si>
     <t>Položka</t>
+  </si>
+  <si>
+    <t>Uzávierka ku dňu</t>
   </si>
 </sst>
 </file>
@@ -5932,23 +5935,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="45.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="36.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="51.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.08984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.36328125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.1796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="45.08984375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="36.08984375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="33.54296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -33313,17 +33316,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="40.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="45.08984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="40.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -60214,8 +60217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -60264,22 +60267,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
-        <v>1841</v>
+        <v>1854</v>
       </c>
       <c r="B1" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -60293,79 +60296,80 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>1846</v>
       </c>
-      <c r="B4">
-        <v>9039.7000000000062</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>9039.700000000006</v>
+      </c>
+      <c r="C4" t="n">
         <v>7533.0833333333385</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1506.6166666666677</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>1847</v>
       </c>
-      <c r="B5">
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>1848</v>
       </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>16.666666666666668</v>
       </c>
-      <c r="D6">
-        <v>3.3333333333333339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="n">
+        <v>3.333333333333334</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>1849</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>10036.200000000006</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>7555.7500000000055</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>1511.150000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>1850</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>969.3</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>969.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9"/>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>1853</v>
       </c>
@@ -60373,39 +60377,39 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>370</v>
       </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>538</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>812</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>19.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>844</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>5.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BOX\eKasa\"/>
     </mc:Choice>
@@ -15,14 +15,14 @@
     <sheet name="Doklady" sheetId="1" r:id="rId1"/>
     <sheet name="Položky dokladu" sheetId="2" r:id="rId2"/>
     <sheet name="Filtrovacie kritériá" sheetId="3" r:id="rId3"/>
-    <sheet name="Sumar" r:id="rId8" sheetId="4"/>
+    <sheet name="Sumar" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6711" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="1856">
   <si>
     <t>Dátum zaevidovania v e-kasa</t>
   </si>
@@ -5547,9 +5547,6 @@
     <t>Dátum vytvorenia</t>
   </si>
   <si>
-    <t>Uzavierka ku dnu</t>
-  </si>
-  <si>
     <t>31.10.2019 23:59:59.00</t>
   </si>
   <si>
@@ -5587,6 +5584,12 @@
   </si>
   <si>
     <t>Uzávierka ku dňu</t>
+  </si>
+  <si>
+    <t>Jednotková cena</t>
+  </si>
+  <si>
+    <t>Počet položiek</t>
   </si>
 </sst>
 </file>
@@ -5935,23 +5938,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="51.36328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.08984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.36328125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.1796875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="45.08984375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="36.08984375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="33.54296875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="1" max="1" width="29.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="45.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="33.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -33316,17 +33319,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.90625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="45.08984375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="40.90625" collapsed="true"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="45.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="40.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -60217,8 +60220,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.81640625" collapsed="true"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -60267,149 +60270,209 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C3" t="s">
         <v>1843</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1844</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>9039.7000000000062</v>
+      </c>
+      <c r="C4">
+        <v>7533.0833333333385</v>
+      </c>
+      <c r="D4">
+        <v>1506.6166666666677</v>
+      </c>
+      <c r="E4">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>1846</v>
       </c>
-      <c r="B4" t="n">
-        <v>9039.700000000006</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7533.0833333333385</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1506.6166666666677</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>1847</v>
       </c>
-      <c r="B5" t="n">
-        <v>7.199999999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D6">
+        <v>3.3333333333333339</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>1848</v>
       </c>
-      <c r="B6" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.333333333333334</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>10036.200000000006</v>
+      </c>
+      <c r="C7">
+        <v>7555.7500000000055</v>
+      </c>
+      <c r="D7">
+        <v>1511.150000000001</v>
+      </c>
+      <c r="E7">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>1849</v>
       </c>
-      <c r="B7" t="n">
-        <v>10036.200000000006</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7555.7500000000055</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1511.150000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>969.3</v>
+      </c>
+      <c r="C9">
+        <v>969.3</v>
+      </c>
+      <c r="E9">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B12" t="s">
         <v>1850</v>
       </c>
-      <c r="B9" t="n">
-        <v>969.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>969.3</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>370</v>
       </c>
-      <c r="B13" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>538</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>812</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>844</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>5.4</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B17">
+        <v>41.999999999999993</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="1020">
   <si>
     <t>Dátum zaevidovania v e-kasa</t>
   </si>

--- a/report.xlsx
+++ b/report.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing. Ivana Ravasová\Desktop\eKasa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BOX\eKasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Doklady" sheetId="1" r:id="rId1"/>
     <sheet name="Položky dokladu" sheetId="2" r:id="rId2"/>
     <sheet name="Filtrovacie kritériá" sheetId="3" r:id="rId3"/>
-    <sheet name="Sumar" r:id="rId7" sheetId="4"/>
+    <sheet name="Sumar" r:id="rId8" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="1020">
   <si>
     <t>Dátum zaevidovania v e-kasa</t>
   </si>
@@ -3087,7 +3087,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ hh:mm:ss"/>
   </numFmts>
@@ -3146,7 +3146,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3162,7 +3162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3426,35 +3426,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="42.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="51.21875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="51.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.08984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.36328125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.1796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="45.08984375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="36.08984375" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="33.54296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>43770.374120370368</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>43770.376226851855</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>43770.380856481483</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>43770.383368055554</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>43770.388229166667</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>43770.399733796294</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>43770.401909722219</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>43770.403726851851</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>43770.405092592591</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>43770.412951388891</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>43770.413368055553</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>43770.414027777777</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>43770.415243055555</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>43770.415717592594</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>43770.418009259258</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>43770.418703703705</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>43770.420092592591</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>43770.420787037037</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>43770.421203703707</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>43770.4216087963</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>43770.428749999999</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>43770.430879629632</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>43770.44021990741</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>43770.440694444442</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>43770.44259259259</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>43770.446076388886</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>43770.446226851855</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>43770.451064814813</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>43770.453148148146</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>43770.45511574074</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>43770.455393518518</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>43770.456284722219</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>43770.459826388891</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>43770.465243055558</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>43770.465810185182</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>43770.466354166667</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>43770.467905092592</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>43770.470590277779</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>43770.472175925926</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>43770.472777777781</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>43770.472974537035</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43770.476689814815</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43770.477939814817</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>43770.479317129626</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>43770.481874999998</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>43770.484039351853</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>43770.487407407411</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>43770.488009259258</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>43770.490567129629</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>43770.491087962961</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>43770.491724537038</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>43770.494016203702</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>43770.494803240741</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>43770.495428240742</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>43770.498124999998</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>43770.501331018517</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>43770.502372685187</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>43770.503252314818</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>43770.511469907404</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>43770.512557870374</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>43770.512939814813</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>43770.513229166667</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>43770.514178240737</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>43770.515243055554</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>43770.515879629631</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>43770.526805555557</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>43770.527638888889</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>43770.528148148151</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>43770.535312499997</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>43770.536087962966</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>43770.537592592591</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>43770.542881944442</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>43770.548888888887</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>43770.549305555556</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>43770.55128472222</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>43770.553217592591</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>43770.553865740738</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>43770.555960648147</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>43770.556805555556</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>43770.562256944446</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>43770.562997685185</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>43770.563576388886</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>43770.565046296295</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>43770.566041666665</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>43770.568009259259</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>43770.56827546296</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>43770.573576388888</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>43770.576701388891</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>43770.578958333332</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>43770.580659722225</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>43770.581724537034</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>43770.58488425926</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>43770.585578703707</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>43770.585844907408</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>43770.587222222224</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>43770.591145833336</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>43770.591666666667</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>43770.603680555556</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>43770.604884259257</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>43770.609212962961</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>43770.611134259256</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>43770.612546296295</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>43770.613032407404</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>43770.617303240739</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>43770.620474537034</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>43770.620983796296</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>43770.622245370374</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>43770.623530092591</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>43770.626261574071</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>43770.627233796295</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>43770.62841435185</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>43770.633831018517</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>43770.634074074071</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>43770.634930555556</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>43770.64</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>43770.641631944447</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>43770.642696759256</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>43770.644074074073</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>43770.644849537035</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>43770.64638888889</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>43770.646805555552</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>43770.650879629633</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>43770.652824074074</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>43770.653935185182</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>43770.657650462963</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>43770.658935185187</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>43770.663159722222</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>43770.663900462961</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>43770.665312500001</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>43770.667037037034</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>43770.667800925927</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>43770.668587962966</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>43770.668842592589</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>43770.670474537037</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>43770.674363425926</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>43770.676620370374</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>43770.685208333336</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>43770.685671296298</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>43770.689814814818</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>43770.691331018519</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>43770.692870370367</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>43770.694502314815</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>43770.694861111115</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>43770.695648148147</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>43770.699629629627</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>43770.701701388891</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>43771.384560185186</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>43771.390717592592</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>43771.391979166663</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>43771.399884259263</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>43771.402812499997</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>43771.409444444442</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>43771.412592592591</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>43771.413611111115</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>43771.421701388892</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>43771.423252314817</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>43771.42428240741</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>43771.427141203705</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>43771.429490740738</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>43771.430960648147</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>43771.431805555556</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>43771.445092592592</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>43771.445972222224</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>43771.457511574074</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>43771.467604166668</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>43771.468460648146</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>43771.468877314815</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>43771.470648148148</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>43771.472546296296</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>43771.474687499998</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>43771.48777777778</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>43771.49114583333</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>43771.509004629632</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>43771.509722222225</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>43771.510092592594</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>43771.511053240742</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>43771.513032407405</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>43771.519375000003</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>43771.531574074077</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>43771.548518518517</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>43771.555150462962</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>43771.555949074071</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>43771.556458333333</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>43771.564131944448</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>43771.564745370371</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>43771.566863425927</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>43771.567557870374</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>43771.57608796296</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>43771.586770833332</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>43771.595671296294</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>43771.608506944445</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>43771.615937499999</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>43771.617418981485</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>43771.639363425929</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>43771.640150462961</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>43771.640972222223</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>43771.648101851853</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>43771.65351851852</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>43771.658912037034</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>43771.668240740742</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>43771.6721875</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>43771.673171296294</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>43773.376886574071</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>43773.406412037039</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>43773.408379629633</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>43773.420613425929</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>43773.422071759262</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>43773.502430555556</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>43773.536886574075</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>43773.549675925926</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>43773.567314814813</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>43773.570567129631</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>43773.594236111108</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>43774.314282407409</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>43774.34578703704</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>43774.346354166664</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>43774.349456018521</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>43774.349814814814</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>43774.364502314813</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>43774.421666666669</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>43774.461064814815</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>743.8</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>43775.340671296297</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>43775.369155092594</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>43775.425717592596</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>43775.426759259259</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>43775.427939814814</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>43775.435046296298</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>43775.45144675926</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>43775.488055555557</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>43775.495995370373</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>43775.496377314812</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>43775.523101851853</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>43775.549189814818</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>43775.550891203704</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>43775.562615740739</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>43775.565995370373</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>43775.567280092589</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>928.7</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>43775.567986111113</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>43775.5862037037</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>43775.598923611113</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>43775.601840277777</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>43775.603761574072</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>43775.613379629627</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>43776.306620370371</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>43776.396435185183</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>43776.403935185182</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>43776.463877314818</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>43776.467372685183</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>43776.516064814816</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>741.2</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>43776.560277777775</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>43776.560891203706</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>1274.9000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>43776.580717592595</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>-1781.65</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>43776.592303240737</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>43776.592569444445</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>43776.619166666664</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>43777.30097222222</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>43777.370370370372</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>-4252.05</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>43777.372152777774</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>4252.05</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>43777.372442129628</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>-4192.05</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>43777.391446759262</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>43777.416562500002</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>43777.417453703703</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>43777.422013888892</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>14.17</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>43777.42224537037</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>43777.4609837963</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>43777.479097222225</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>43777.500289351854</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>43777.542974537035</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>43777.560717592591</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>43777.569016203706</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>43777.581863425927</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>43777.596122685187</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>43780.292395833334</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>43780.339236111111</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>43780.421956018516</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>43780.44667824074</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>43780.513472222221</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>43780.518645833334</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>43780.522523148145</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>43780.586921296293</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>43781.360462962963</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>43781.468553240738</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>43781.47792824074</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>43781.479733796295</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>43781.510115740741</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>43781.5312037037</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>43781.533182870371</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>43781.56145833333</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>43781.566458333335</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>43781.585694444446</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>43781.594699074078</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>43781.636400462965</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>43781.637395833335</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>952.1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>43782.318854166668</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>43782.36954861111</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>43782.513078703705</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>43782.517326388886</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>614.79999999999995</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>43782.547835648147</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>43783.466817129629</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>43783.527581018519</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>43783.528182870374</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>43783.534120370372</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>43783.559305555558</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>43783.616527777776</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>43783.636597222219</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>43784.323819444442</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>43784.393807870372</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>43784.397546296299</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>43784.458229166667</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>43784.458472222221</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>43784.482766203706</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>43784.510578703703</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>43784.552407407406</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>43784.573391203703</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>43784.575937499998</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>43784.604305555556</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>43784.607233796298</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>376.2</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
         <v>43784.613611111112</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>43787.302824074075</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
         <v>43787.317719907405</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>43787.340104166666</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
         <v>43787.370046296295</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>43787.407789351855</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>1016.4</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
         <v>43787.415833333333</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>43787.452187499999</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>43787.486273148148</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>893.3</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>43787.488703703704</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
         <v>43787.515787037039</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>20.27</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>43787.555648148147</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
         <v>43787.566678240742</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>43787.588425925926</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>43787.592951388891</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>43787.596967592595</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>43787.618587962963</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>43788.312303240738</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>43788.384733796294</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>43788.404513888891</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>43788.426099537035</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>43788.426354166666</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>43788.429525462961</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>43788.443749999999</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
         <v>43788.452569444446</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>43788.496331018519</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
         <v>43788.522743055553</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>43788.574780092589</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
         <v>43788.588703703703</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>43788.619259259256</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>43788.635960648149</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>43789.339062500003</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
         <v>43789.362060185187</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>43789.38894675926</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
         <v>43789.437361111108</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>43789.45107638889</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
         <v>43789.454560185186</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>43789.457615740743</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
         <v>43789.475034722222</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>43789.475358796299</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
         <v>43789.523668981485</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <v>43789.527106481481</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
         <v>43789.530023148145</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <v>43789.537291666667</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
         <v>43789.552928240744</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <v>43789.577939814815</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
         <v>43790.309374999997</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <v>43790.33734953704</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
         <v>43790.338761574072</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>1218.5</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <v>43790.352870370371</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
         <v>43790.353460648148</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <v>43790.364699074074</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
         <v>43790.555659722224</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>-5181.6000000000004</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <v>43790.559074074074</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
         <v>43790.569386574076</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <v>43790.570451388892</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>1297.3</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
         <v>43790.578738425924</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
         <v>43791.313807870371</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
         <v>43791.345775462964</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
         <v>43791.34715277778</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380" s="3">
         <v>43791.394930555558</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
         <v>43791.397465277776</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
         <v>43791.410821759258</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
         <v>43791.412175925929</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
         <v>43791.413726851853</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
         <v>43791.439780092594</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
         <v>43791.447824074072</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <v>43791.449606481481</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
         <v>43791.471944444442</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <v>43791.472349537034</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
         <v>43791.502974537034</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <v>43791.516909722224</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
         <v>43791.518437500003</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <v>43791.529189814813</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
         <v>43791.535671296297</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <v>43791.591689814813</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
         <v>43791.596620370372</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <v>43791.616909722223</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
         <v>43791.6171875</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
         <v>43791.64644675926</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
         <v>43791.652199074073</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
         <v>43794.34983796296</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
         <v>43794.385601851849</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
         <v>43794.397627314815</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
         <v>43794.400949074072</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>974.5</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
         <v>43794.404606481483</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
         <v>43794.422094907408</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
         <v>43794.429780092592</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" s="3">
         <v>43794.448576388888</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
         <v>43794.488067129627</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" s="3">
         <v>43794.515115740738</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
         <v>43794.544594907406</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" s="3">
         <v>43794.54478009259</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
         <v>43794.57540509259</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" s="3">
         <v>43794.588321759256</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
         <v>43794.596377314818</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" s="3">
         <v>43794.612118055556</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
         <v>43794.624502314815</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" s="3">
         <v>43795.313611111109</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
         <v>43795.317129629628</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" s="3">
         <v>43795.438113425924</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
         <v>43795.496655092589</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>611.5</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" s="3">
         <v>43795.505706018521</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
         <v>43795.514733796299</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>-4470.3999999999996</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" s="3">
         <v>43795.522858796299</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
         <v>43795.541006944448</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426" s="3">
         <v>43795.546284722222</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
         <v>43795.552361111113</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428" s="3">
         <v>43795.554525462961</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
         <v>43795.561203703706</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" s="3">
         <v>43795.614594907405</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
         <v>43796.310636574075</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" s="3">
         <v>43796.371435185189</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
         <v>43796.373148148145</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>835.4</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" s="3">
         <v>43796.45689814815</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
         <v>43796.592395833337</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" s="3">
         <v>43796.592638888891</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
         <v>43796.592835648145</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" s="3">
         <v>43796.596666666665</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
         <v>43796.599756944444</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" s="3">
         <v>43796.607569444444</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
         <v>43796.621087962965</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" s="3">
         <v>43796.633171296293</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
         <v>43797.318090277775</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" s="3">
         <v>43797.420787037037</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
         <v>43797.429548611108</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" s="3">
         <v>43797.454525462963</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
         <v>43797.526122685187</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" s="3">
         <v>43797.593923611108</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
         <v>43798.323611111111</v>
       </c>
@@ -17561,27 +17561,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="42.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="45.08984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="40.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -18216,7 +18216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>105</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -19056,7 +19056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>174</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>174</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>174</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>178</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>180</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>186</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>188</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>193</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>196</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>196</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>198</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>198</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>198</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>198</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>200</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>202</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>205</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>207</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>211</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>213</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>213</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>215</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>217</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>221</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>221</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>221</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>221</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>221</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>223</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>225</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>225</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>227</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>229</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>231</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>233</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>235</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>237</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>237</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>239</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>241</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>243</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>245</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>247</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>247</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>249</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>249</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>251</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>253</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>253</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>253</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>255</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>257</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>257</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>257</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>259</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>259</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>259</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>261</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>261</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>263</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>265</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>267</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>269</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>271</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>271</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>271</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>271</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>273</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>275</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>277</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>277</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>277</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>279</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>281</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>283</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>285</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>287</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>289</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>289</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>291</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>293</v>
       </c>
@@ -21376,7 +21376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>293</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>295</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>297</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>299</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>301</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>303</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>303</v>
       </c>
@@ -21516,7 +21516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>305</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>305</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>308</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>310</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>312</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>312</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>314</v>
       </c>
@@ -21656,7 +21656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>314</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>316</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>318</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>318</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>318</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>320</v>
       </c>
@@ -21776,7 +21776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>320</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>322</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>324</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>326</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>328</v>
       </c>
@@ -21876,7 +21876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>328</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>330</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>332</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>332</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>334</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>336</v>
       </c>
@@ -21996,7 +21996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>336</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>336</v>
       </c>
@@ -22036,7 +22036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>336</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>338</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>338</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>338</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>338</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>340</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>342</v>
       </c>
@@ -22176,7 +22176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>345</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>347</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>349</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>351</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>351</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>353</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>355</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>357</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>359</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>361</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>363</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>363</v>
       </c>
@@ -22416,7 +22416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>365</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>365</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>368</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>368</v>
       </c>
@@ -22496,7 +22496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>370</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>370</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>372</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>372</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>372</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>374</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>376</v>
       </c>
@@ -22636,7 +22636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>376</v>
       </c>
@@ -22656,7 +22656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>378</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>380</v>
       </c>
@@ -22696,7 +22696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>382</v>
       </c>
@@ -22716,7 +22716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>384</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>386</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>388</v>
       </c>
@@ -22776,7 +22776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>390</v>
       </c>
@@ -22796,7 +22796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>392</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>394</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>394</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>396</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>399</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>401</v>
       </c>
@@ -22916,7 +22916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>403</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>403</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>406</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>406</v>
       </c>
@@ -22996,7 +22996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>408</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>408</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>408</v>
       </c>
@@ -23056,7 +23056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>408</v>
       </c>
@@ -23076,7 +23076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>410</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>410</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>410</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>412</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>412</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>414</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>416</v>
       </c>
@@ -23216,7 +23216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>418</v>
       </c>
@@ -23236,7 +23236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>420</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>422</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>422</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>424</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>426</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>428</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>428</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>430</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>432</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>434</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>436</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>436</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>438</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>438</v>
       </c>
@@ -23516,7 +23516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>440</v>
       </c>
@@ -23536,7 +23536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>442</v>
       </c>
@@ -23556,7 +23556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>444</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>446</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>448</v>
       </c>
@@ -23616,7 +23616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>448</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>450</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>452</v>
       </c>
@@ -23676,7 +23676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>452</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>452</v>
       </c>
@@ -23716,7 +23716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>452</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>455</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>457</v>
       </c>
@@ -23776,7 +23776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>457</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>459</v>
       </c>
@@ -23816,7 +23816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>461</v>
       </c>
@@ -23836,7 +23836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>463</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>465</v>
       </c>
@@ -23876,7 +23876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>465</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>465</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>467</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>467</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>469</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>473</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>476</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>476</v>
       </c>
@@ -24036,7 +24036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>478</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>478</v>
       </c>
@@ -24076,7 +24076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>480</v>
       </c>
@@ -24096,7 +24096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>482</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>484</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>486</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>486</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>486</v>
       </c>
@@ -24196,7 +24196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>486</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>488</v>
       </c>
@@ -24236,7 +24236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>490</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>492</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>496</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>498</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>500</v>
       </c>
@@ -24336,7 +24336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>503</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>505</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>507</v>
       </c>
@@ -24396,7 +24396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>513</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>513</v>
       </c>
@@ -24436,7 +24436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>513</v>
       </c>
@@ -24456,7 +24456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>515</v>
       </c>
@@ -24476,7 +24476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>517</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>520</v>
       </c>
@@ -24516,7 +24516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>520</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>522</v>
       </c>
@@ -24556,7 +24556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>524</v>
       </c>
@@ -24576,7 +24576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>526</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>528</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>530</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>530</v>
       </c>
@@ -24656,7 +24656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>532</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>534</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>534</v>
       </c>
@@ -24716,7 +24716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>536</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>538</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>540</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>542</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>547</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>549</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>551</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>554</v>
       </c>
@@ -24876,7 +24876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>556</v>
       </c>
@@ -24896,7 +24896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>558</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>562</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>562</v>
       </c>
@@ -24956,7 +24956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>562</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>562</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>562</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>564</v>
       </c>
@@ -25036,7 +25036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>566</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>568</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>573</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>581</v>
       </c>
@@ -25116,7 +25116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>583</v>
       </c>
@@ -25136,7 +25136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>585</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>595</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>597</v>
       </c>
@@ -25196,7 +25196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>599</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>599</v>
       </c>
@@ -25236,7 +25236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>601</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>603</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>605</v>
       </c>
@@ -25296,7 +25296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>605</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>607</v>
       </c>
@@ -25336,7 +25336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>609</v>
       </c>
@@ -25356,7 +25356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>611</v>
       </c>
@@ -25376,7 +25376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>613</v>
       </c>
@@ -25396,7 +25396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>615</v>
       </c>
@@ -25416,7 +25416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>617</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>617</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>619</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>623</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>625</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>627</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>629</v>
       </c>
@@ -25556,7 +25556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>629</v>
       </c>
@@ -25576,7 +25576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>631</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>633</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>633</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>635</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>635</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>642</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>644</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>646</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>648</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>650</v>
       </c>
@@ -25776,7 +25776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>650</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>652</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>654</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>656</v>
       </c>
@@ -25856,7 +25856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>658</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>660</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>667</v>
       </c>
@@ -25916,7 +25916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>667</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>669</v>
       </c>
@@ -25956,7 +25956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>674</v>
       </c>
@@ -25976,7 +25976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>676</v>
       </c>
@@ -25996,7 +25996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>678</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>680</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>682</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>684</v>
       </c>
@@ -26076,7 +26076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>686</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>688</v>
       </c>
@@ -26116,7 +26116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>692</v>
       </c>
@@ -26136,7 +26136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>692</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>694</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>694</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>694</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>696</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>696</v>
       </c>
@@ -26256,7 +26256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>698</v>
       </c>
@@ -26276,7 +26276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>700</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>700</v>
       </c>
@@ -26316,7 +26316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>700</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>702</v>
       </c>
@@ -26356,7 +26356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>702</v>
       </c>
@@ -26376,7 +26376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>704</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>706</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>706</v>
       </c>
@@ -26436,7 +26436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>708</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>708</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>710</v>
       </c>
@@ -26496,7 +26496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>715</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>715</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>715</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>715</v>
       </c>
@@ -26576,7 +26576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>715</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>719</v>
       </c>
@@ -26616,7 +26616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>721</v>
       </c>
@@ -26636,7 +26636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>723</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>728</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>732</v>
       </c>
@@ -26696,7 +26696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>737</v>
       </c>
@@ -26716,7 +26716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>737</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>737</v>
       </c>
@@ -26756,7 +26756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>737</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>739</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>739</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>739</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>739</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>739</v>
       </c>
@@ -26876,7 +26876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>739</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>746</v>
       </c>
@@ -26916,7 +26916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>748</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>748</v>
       </c>
@@ -26956,7 +26956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>750</v>
       </c>
@@ -26976,7 +26976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>752</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>754</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>756</v>
       </c>
@@ -27036,7 +27036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>760</v>
       </c>
@@ -27056,7 +27056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>762</v>
       </c>
@@ -27076,7 +27076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>764</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>766</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>768</v>
       </c>
@@ -27136,7 +27136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>770</v>
       </c>
@@ -27156,7 +27156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>772</v>
       </c>
@@ -27176,7 +27176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>772</v>
       </c>
@@ -27196,7 +27196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>774</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>774</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>776</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>776</v>
       </c>
@@ -27276,7 +27276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>778</v>
       </c>
@@ -27296,7 +27296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>778</v>
       </c>
@@ -27316,7 +27316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>780</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>780</v>
       </c>
@@ -27356,7 +27356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>780</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>782</v>
       </c>
@@ -27396,7 +27396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>784</v>
       </c>
@@ -27416,7 +27416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>784</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>784</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>784</v>
       </c>
@@ -27476,7 +27476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>786</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>788</v>
       </c>
@@ -27516,7 +27516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>790</v>
       </c>
@@ -27536,7 +27536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>792</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>792</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>794</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>796</v>
       </c>
@@ -27616,7 +27616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>796</v>
       </c>
@@ -27636,7 +27636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>796</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>798</v>
       </c>
@@ -27676,7 +27676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>800</v>
       </c>
@@ -27696,7 +27696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>802</v>
       </c>
@@ -27716,7 +27716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>804</v>
       </c>
@@ -27736,7 +27736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>804</v>
       </c>
@@ -27756,7 +27756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>806</v>
       </c>
@@ -27776,7 +27776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>808</v>
       </c>
@@ -27796,7 +27796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>808</v>
       </c>
@@ -27816,7 +27816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>810</v>
       </c>
@@ -27836,7 +27836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>812</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>814</v>
       </c>
@@ -27876,7 +27876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>818</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>823</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>825</v>
       </c>
@@ -27936,7 +27936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>828</v>
       </c>
@@ -27956,7 +27956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>832</v>
       </c>
@@ -27976,7 +27976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>832</v>
       </c>
@@ -27996,7 +27996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>834</v>
       </c>
@@ -28016,7 +28016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>839</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>839</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>843</v>
       </c>
@@ -28076,7 +28076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>848</v>
       </c>
@@ -28096,7 +28096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>850</v>
       </c>
@@ -28116,7 +28116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>850</v>
       </c>
@@ -28136,7 +28136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>852</v>
       </c>
@@ -28156,7 +28156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>854</v>
       </c>
@@ -28176,7 +28176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>856</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>856</v>
       </c>
@@ -28216,7 +28216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>858</v>
       </c>
@@ -28236,7 +28236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>860</v>
       </c>
@@ -28256,7 +28256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>862</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>864</v>
       </c>
@@ -28296,7 +28296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>866</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>868</v>
       </c>
@@ -28336,7 +28336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>868</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>870</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>872</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>872</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>874</v>
       </c>
@@ -28436,7 +28436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>876</v>
       </c>
@@ -28456,7 +28456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>878</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>880</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>880</v>
       </c>
@@ -28516,7 +28516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>882</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>882</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>884</v>
       </c>
@@ -28576,7 +28576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>886</v>
       </c>
@@ -28596,7 +28596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>888</v>
       </c>
@@ -28616,7 +28616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>892</v>
       </c>
@@ -28636,7 +28636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>894</v>
       </c>
@@ -28656,7 +28656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>899</v>
       </c>
@@ -28676,7 +28676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>901</v>
       </c>
@@ -28696,7 +28696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>903</v>
       </c>
@@ -28716,7 +28716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>905</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>907</v>
       </c>
@@ -28756,7 +28756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>907</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>909</v>
       </c>
@@ -28796,7 +28796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>911</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>913</v>
       </c>
@@ -28836,7 +28836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>913</v>
       </c>
@@ -28856,7 +28856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>915</v>
       </c>
@@ -28876,7 +28876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>915</v>
       </c>
@@ -28896,7 +28896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>917</v>
       </c>
@@ -28916,7 +28916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>919</v>
       </c>
@@ -28936,7 +28936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>919</v>
       </c>
@@ -28956,7 +28956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>921</v>
       </c>
@@ -28976,7 +28976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>923</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>927</v>
       </c>
@@ -29016,7 +29016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>927</v>
       </c>
@@ -29036,7 +29036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>927</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>932</v>
       </c>
@@ -29076,7 +29076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>937</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>941</v>
       </c>
@@ -29116,7 +29116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>943</v>
       </c>
@@ -29136,7 +29136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>943</v>
       </c>
@@ -29156,7 +29156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>945</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>947</v>
       </c>
@@ -29196,7 +29196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>949</v>
       </c>
@@ -29216,7 +29216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>949</v>
       </c>
@@ -29236,7 +29236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>951</v>
       </c>
@@ -29256,7 +29256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>953</v>
       </c>
@@ -29276,7 +29276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>957</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>962</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>964</v>
       </c>
@@ -29336,7 +29336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>966</v>
       </c>
@@ -29356,7 +29356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>968</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>970</v>
       </c>
@@ -29396,7 +29396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>970</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>970</v>
       </c>
@@ -29436,7 +29436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>972</v>
       </c>
@@ -29456,7 +29456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>974</v>
       </c>
@@ -29476,7 +29476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>974</v>
       </c>
@@ -29496,7 +29496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>974</v>
       </c>
@@ -29516,7 +29516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>976</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>976</v>
       </c>
@@ -29556,7 +29556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>978</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>982</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>985</v>
       </c>
@@ -29616,7 +29616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>985</v>
       </c>
@@ -29636,7 +29636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>987</v>
       </c>
@@ -29656,7 +29656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>989</v>
       </c>
@@ -29676,7 +29676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>991</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>991</v>
       </c>
@@ -29716,7 +29716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>991</v>
       </c>
@@ -29747,13 +29747,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>997</v>
       </c>
@@ -29761,7 +29761,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>999</v>
       </c>
@@ -29769,7 +29769,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1000</v>
       </c>
@@ -29777,7 +29777,7 @@
         <v>43799.999988425923</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1001</v>
       </c>
@@ -29785,7 +29785,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1003</v>
       </c>
